--- a/Traverse.xlsx
+++ b/Traverse.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANJEEV BASHYAL\Desktop\Survey Camp 2076\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC612B1-78E7-4923-A32B-5E5D531E8E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440A5330-BF7F-4C3F-BD5F-48C4F454B9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="3" xr2:uid="{1C92280B-B669-4456-B245-B98452BD5BC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="2" activeTab="4" xr2:uid="{1C92280B-B669-4456-B245-B98452BD5BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="HCR Distance Observation" sheetId="1" r:id="rId1"/>
     <sheet name="Gales Table Major Traverse" sheetId="5" r:id="rId2"/>
     <sheet name="Gales Table Minor Traverse" sheetId="6" r:id="rId3"/>
     <sheet name="Level Transfer" sheetId="8" r:id="rId4"/>
+    <sheet name="Level Transfer Minor Traverse" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="133">
   <si>
     <t>CP2</t>
   </si>
@@ -474,6 +475,35 @@
   <si>
     <t>M17 --&gt; TBM5 [Backward]</t>
   </si>
+  <si>
+    <t>Minor Traverse Levelling</t>
+  </si>
+  <si>
+    <t>Station
+Chainage</t>
+  </si>
+  <si>
+    <t>Turning
+Points</t>
+  </si>
+  <si>
+    <t>TP21</t>
+  </si>
+  <si>
+    <t>TP22</t>
+  </si>
+  <si>
+    <t>TP23</t>
+  </si>
+  <si>
+    <t>TP24</t>
+  </si>
+  <si>
+    <t>TP25</t>
+  </si>
+  <si>
+    <t>TP26</t>
+  </si>
 </sst>
 </file>
 
@@ -484,7 +514,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +610,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -643,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1093,11 +1129,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1289,45 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,9 +1376,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,6 +1388,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,31 +1400,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,32 +1409,38 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,28 +1448,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,20 +1820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1783,2005 +1874,2005 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="118" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="112">
         <f t="shared" ref="D3" si="0">(C5-C3+C6-C4)/2</f>
         <v>8.3938078703703702</v>
       </c>
       <c r="E3" s="4">
         <v>3.75</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="114">
         <f>(E5-E3+E6-E4)/2</f>
         <v>8.3938194444444463</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="122">
         <f>(D3+F3)/2</f>
         <v>8.3938136574074083</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="111">
         <v>105.98099999999999</v>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="124">
         <f>AVERAGE(H3,H77)</f>
         <v>105.9735</v>
       </c>
-      <c r="J3" s="90">
+      <c r="J3" s="117">
         <f>I3/ABS(H3-H77)</f>
         <v>7064.8999999997322</v>
       </c>
-      <c r="K3" s="84">
+      <c r="K3" s="111">
         <v>3.67</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="5">
         <v>7.5</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="5">
         <v>11.250023148148147</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="91" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>8.3937847222222217</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="5">
         <v>12.143819444444444</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="84">
+      <c r="F5" s="115"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="111">
         <v>113.554</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="119">
         <f>(H5+H7)/2</f>
         <v>113.545</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="117">
         <f>I5/ABS(H7-H5)</f>
         <v>6308.0555555553165</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="111">
         <v>-3.5289999999999999</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="111">
         <v>1.2849999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="6">
         <v>15.893831018518519</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="6">
         <v>19.643842592592595</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="114">
         <f t="shared" ref="D7" si="1">(C9-C7+C10-C8)/2</f>
         <v>6.5883159722222242</v>
       </c>
       <c r="E7" s="4">
         <v>3.75</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="114">
         <f t="shared" ref="F7" si="2">(E9-E7+E10-E8)/2</f>
         <v>6.5883680555555557</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="122">
         <f t="shared" ref="G7" si="3">(D7+F7)/2</f>
         <v>6.58834201388889</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="111">
         <v>113.536</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="84">
+      <c r="I7" s="120"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="111">
         <v>3.746</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="5">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="5">
         <v>11.250046296296297</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>6.5884722222222223</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="115"/>
       <c r="E9" s="5">
         <v>10.338402777777778</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="84">
+      <c r="F9" s="115"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="111">
         <v>121.376</v>
       </c>
-      <c r="I9" s="92">
+      <c r="I9" s="119">
         <f t="shared" ref="I9" si="4">(H9+H11)/2</f>
         <v>121.381</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="117">
         <f t="shared" ref="J9" si="5">I9/ABS(H11-H9)</f>
         <v>12138.10000001104</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="111">
         <v>-4.9420000000000002</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="111">
         <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="6">
         <v>14.088298611111112</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="115"/>
       <c r="E10" s="6">
         <v>17.838379629629632</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="115" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="114">
         <f t="shared" ref="D11" si="6">(C13-C11+C14-C12)/2</f>
         <v>5.7337326388888883</v>
       </c>
       <c r="E11" s="4">
         <v>3.75</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="114">
         <f t="shared" ref="F11" si="7">(E13-E11+E14-E12)/2</f>
         <v>5.7336168981481492</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="122">
         <f t="shared" ref="G11" si="8">(D11+F11)/2</f>
         <v>5.7336747685185188</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="111">
         <v>121.386</v>
       </c>
-      <c r="I11" s="93"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="84">
+      <c r="I11" s="120"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="111">
         <v>5.149</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="5">
         <v>7.5000347222222219</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="5">
         <v>7.5000115740740734</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5">
         <v>5.733842592592592</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="5">
         <v>9.4835879629629627</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="84">
+      <c r="F13" s="115"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="111">
         <v>78.108000000000004</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="119">
         <f t="shared" ref="I13" si="9">(H13+H15)/2</f>
         <v>78.103499999999997</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="117">
         <f t="shared" ref="J13" si="10">I13/ABS(H15-H13)</f>
         <v>8678.1666666663368</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="111">
         <v>-7.7629999999999999</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="6">
         <v>13.233657407407406</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="6">
         <v>13.233657407407406</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="114">
         <f t="shared" ref="D15" si="11">(C17-C15+C18-C16)/2</f>
         <v>6.2031944444444456</v>
       </c>
       <c r="E15" s="4">
         <v>3.75</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="114">
         <f t="shared" ref="F15" si="12">(E17-E15+E18-E16)/2</f>
         <v>6.2032002314814818</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="122">
         <f t="shared" ref="G15" si="13">(D15+F15)/2</f>
         <v>6.2031973379629637</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="111">
         <v>78.099000000000004</v>
       </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="84">
+      <c r="I15" s="120"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="111">
         <v>7.5519999999999996</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="5">
         <v>7.4999537037037038</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="115"/>
       <c r="E16" s="5">
         <v>11.250046296296297</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5">
         <v>6.2032407407407399</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="115"/>
       <c r="E17" s="5">
         <v>9.9531828703703713</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="84">
+      <c r="F17" s="115"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="111">
         <v>61.79</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="119">
         <f t="shared" ref="I17" si="14">(H17+H19)/2</f>
         <v>61.789500000000004</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="117">
         <f t="shared" ref="J17" si="15">I17/ABS(H19-H17)</f>
         <v>61789.500000144006</v>
       </c>
-      <c r="K17" s="84">
+      <c r="K17" s="111">
         <v>-3.87</v>
       </c>
-      <c r="L17" s="84">
+      <c r="L17" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="6">
         <v>13.703101851851853</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="6">
         <v>17.453263888888888</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="114">
         <f t="shared" ref="D19" si="16">(C21-C19+C22-C20)/2</f>
         <v>6.7329282407407423</v>
       </c>
       <c r="E19" s="4">
         <v>3.75</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="114">
         <f t="shared" ref="F19" si="17">(E21-E19+E22-E20)/2</f>
         <v>6.732945601851851</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="122">
         <f t="shared" ref="G19" si="18">(D19+F19)/2</f>
         <v>6.7329369212962966</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="111">
         <v>61.789000000000001</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="84">
+      <c r="I19" s="120"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="111">
         <v>3.75</v>
       </c>
-      <c r="L19" s="84">
+      <c r="L19" s="111">
         <v>1.35</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="5">
         <v>7.4999537037037038</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="115"/>
       <c r="E20" s="5">
         <v>11.250046296296297</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="115"/>
+      <c r="B21" s="115" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>6.7329398148148156</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="5">
         <v>10.48292824074074</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="84">
+      <c r="F21" s="115"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="111">
         <v>102.34</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="119">
         <f t="shared" ref="I21" si="19">(H21+H23)/2</f>
         <v>102.3415</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="117">
         <f t="shared" ref="J21" si="20">I21/ABS(H23-H21)</f>
         <v>34113.833333332041</v>
       </c>
-      <c r="K21" s="84">
+      <c r="K21" s="111">
         <v>3.6360000000000001</v>
       </c>
-      <c r="L21" s="84">
+      <c r="L21" s="111">
         <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="6">
         <v>14.232870370370371</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="6">
         <v>17.983009259259259</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="114">
         <f t="shared" ref="D23" si="21">(C25-C23+C26-C24)/2</f>
         <v>10.772997685185187</v>
       </c>
       <c r="E23" s="4">
         <v>3.75</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="114">
         <f t="shared" ref="F23" si="22">(E25-E23+E26-E24)/2</f>
         <v>10.773032407407406</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="122">
         <f t="shared" ref="G23" si="23">(D23+F23)/2</f>
         <v>10.773015046296297</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="111">
         <v>102.343</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="84">
+      <c r="I23" s="120"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="111">
         <v>-3.3839999999999999</v>
       </c>
-      <c r="L23" s="84">
+      <c r="L23" s="111">
         <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="5">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="115"/>
       <c r="E24" s="5">
         <v>11.250092592592592</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="115" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5">
         <v>10.773159722222223</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="5">
         <v>14.523055555555556</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="84">
+      <c r="F25" s="115"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="111">
         <v>88.995999999999995</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="119">
         <f t="shared" ref="I25" si="24">(H25+H27)/2</f>
         <v>88.996499999999997</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="117">
         <f t="shared" ref="J25" si="25">I25/ABS(H27-H25)</f>
         <v>88996.499999575055</v>
       </c>
-      <c r="K25" s="84">
+      <c r="K25" s="111">
         <v>1.8260000000000001</v>
       </c>
-      <c r="L25" s="84">
+      <c r="L25" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="6">
         <v>18.272974537037037</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="115"/>
       <c r="E26" s="6">
         <v>22.023101851851852</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="115" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="114">
         <f t="shared" ref="D27" si="26">(C29-C27+C30-C28)/2</f>
         <v>5.9927488425925937</v>
       </c>
       <c r="E27" s="4">
         <v>3.75</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F27" s="114">
         <f t="shared" ref="F27" si="27">(E29-E27+E30-E28)/2</f>
         <v>5.9927199074074062</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="122">
         <f t="shared" ref="G27" si="28">(D27+F27)/2</f>
         <v>5.9927343749999995</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="111">
         <v>88.997</v>
       </c>
-      <c r="I27" s="93"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="84">
+      <c r="I27" s="120"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="111">
         <v>-1.837</v>
       </c>
-      <c r="L27" s="84">
+      <c r="L27" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="5">
         <v>7.4999305555555553</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="5">
         <v>11.249976851851853</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="5">
         <v>5.992719907407408</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="5">
         <v>9.7427314814814814</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="84">
+      <c r="F29" s="115"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="111">
         <v>64.725999999999999</v>
       </c>
-      <c r="I29" s="92">
+      <c r="I29" s="119">
         <f t="shared" ref="I29" si="29">(H29+H31)/2</f>
         <v>64.722000000000008</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="117">
         <f t="shared" ref="J29" si="30">I29/ABS(H31-H29)</f>
         <v>8090.2500000044847</v>
       </c>
-      <c r="K29" s="84">
+      <c r="K29" s="111">
         <v>2.16</v>
       </c>
-      <c r="L29" s="84">
+      <c r="L29" s="111">
         <v>1.53</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="6">
         <v>13.492708333333333</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="6">
         <v>17.242685185185184</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="115" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="114">
         <f t="shared" ref="D31" si="31">(C33-C31+C34-C32)/2</f>
         <v>5.3045543981481487</v>
       </c>
       <c r="E31" s="4">
         <v>3.75</v>
       </c>
-      <c r="F31" s="87">
+      <c r="F31" s="114">
         <f t="shared" ref="F31" si="32">(E33-E31+E34-E32)/2</f>
         <v>5.3045370370370355</v>
       </c>
-      <c r="G31" s="95">
+      <c r="G31" s="122">
         <f t="shared" ref="G31" si="33">(D31+F31)/2</f>
         <v>5.3045457175925925</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="111">
         <v>64.718000000000004</v>
       </c>
-      <c r="I31" s="93"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="84">
+      <c r="I31" s="120"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="111">
         <v>-1.1619999999999999</v>
       </c>
-      <c r="L31" s="84">
+      <c r="L31" s="111">
         <v>2.15</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="5">
         <v>7.5001388888888885</v>
       </c>
-      <c r="D32" s="88"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="5">
         <v>11.250011574074074</v>
       </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="115" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5">
         <v>5.3047106481481476</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="5">
         <v>9.0545717592592592</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="84">
+      <c r="F33" s="115"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="111">
         <v>69.39</v>
       </c>
-      <c r="I33" s="92">
+      <c r="I33" s="119">
         <f t="shared" ref="I33" si="34">(H33+H35)/2</f>
         <v>69.385999999999996</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="117">
         <f t="shared" ref="J33" si="35">I33/ABS(H35-H33)</f>
         <v>8673.2500000048058</v>
       </c>
-      <c r="K33" s="84">
+      <c r="K33" s="111">
         <v>-1.853</v>
       </c>
-      <c r="L33" s="84">
+      <c r="L33" s="111">
         <v>1.35</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="6">
         <v>12.804537037037036</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="6">
         <v>16.554513888888888</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="114">
         <f t="shared" ref="D35" si="36">(C37-C35+C38-C36)/2</f>
         <v>5.8596527777777769</v>
       </c>
       <c r="E35" s="4">
         <v>3.75</v>
       </c>
-      <c r="F35" s="87">
+      <c r="F35" s="114">
         <f t="shared" ref="F35" si="37">(E37-E35+E38-E36)/2</f>
         <v>5.859652777777776</v>
       </c>
-      <c r="G35" s="95">
+      <c r="G35" s="122">
         <f t="shared" ref="G35" si="38">(D35+F35)/2</f>
         <v>5.8596527777777769</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="111">
         <v>69.382000000000005</v>
       </c>
-      <c r="I35" s="93"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="84">
+      <c r="I35" s="120"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="111">
         <v>2.0019999999999998</v>
       </c>
-      <c r="L35" s="84">
+      <c r="L35" s="111">
         <v>1.31</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="5">
         <v>7.5</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="115"/>
       <c r="E36" s="5">
         <v>11.25008101851852</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88" t="s">
+      <c r="A37" s="115"/>
+      <c r="B37" s="115" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="5">
         <v>5.8597222222222216</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="5">
         <v>9.6096759259259255</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="84">
+      <c r="F37" s="115"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="111">
         <v>96.554000000000002</v>
       </c>
-      <c r="I37" s="92">
+      <c r="I37" s="119">
         <f t="shared" ref="I37" si="39">(H37+H39)/2</f>
         <v>96.5565</v>
       </c>
-      <c r="J37" s="90">
+      <c r="J37" s="117">
         <f t="shared" ref="J37" si="40">I37/ABS(H39-H37)</f>
         <v>19311.300000017563</v>
       </c>
-      <c r="K37" s="84">
+      <c r="K37" s="111">
         <v>10.016999999999999</v>
       </c>
-      <c r="L37" s="84">
+      <c r="L37" s="111">
         <v>2.1</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="6">
         <v>13.359583333333333</v>
       </c>
-      <c r="D38" s="88"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="6">
         <v>17.109710648148148</v>
       </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="115" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="114">
         <f t="shared" ref="D39" si="41">(C41-C39+C42-C40)/2</f>
         <v>7.2605208333333344</v>
       </c>
       <c r="E39" s="4">
         <v>3.75</v>
       </c>
-      <c r="F39" s="87">
+      <c r="F39" s="114">
         <f t="shared" ref="F39" si="42">(E41-E39+E42-E40)/2</f>
         <v>7.2605439814814803</v>
       </c>
-      <c r="G39" s="95">
+      <c r="G39" s="122">
         <f t="shared" ref="G39" si="43">(D39+F39)/2</f>
         <v>7.2605324074074069</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="111">
         <v>96.558999999999997</v>
       </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="84">
+      <c r="I39" s="120"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="111">
         <v>-8.3979999999999997</v>
       </c>
-      <c r="L39" s="84">
+      <c r="L39" s="111">
         <v>2.15</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="5">
         <v>7.500162037037037</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="115"/>
       <c r="E40" s="5">
         <v>11.249976851851853</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="111"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="115"/>
+      <c r="B41" s="115" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="5">
         <v>7.2605439814814821</v>
       </c>
-      <c r="D41" s="88"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="5">
         <v>11.010509259259258</v>
       </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="84">
+      <c r="F41" s="115"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="111">
         <v>71.870999999999995</v>
       </c>
-      <c r="I41" s="92">
+      <c r="I41" s="119">
         <f t="shared" ref="I41" si="44">(H41+H43)/2</f>
         <v>71.872</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41" s="117">
         <f t="shared" ref="J41" si="45">I41/ABS(H43-H41)</f>
         <v>35935.999999828411</v>
       </c>
-      <c r="K41" s="84">
+      <c r="K41" s="111">
         <v>0.81200000000000006</v>
       </c>
-      <c r="L41" s="84">
+      <c r="L41" s="111">
         <v>2.1</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="6">
         <v>14.760659722222222</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="6">
         <v>18.510555555555555</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="115" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="114">
         <f t="shared" ref="D43" si="46">(C45-C43+C46-C44)/2</f>
         <v>4.1051620370370383</v>
       </c>
       <c r="E43" s="4">
         <v>3.75</v>
       </c>
-      <c r="F43" s="87">
+      <c r="F43" s="114">
         <f t="shared" ref="F43" si="47">(E45-E43+E46-E44)/2</f>
         <v>4.1050115740740738</v>
       </c>
-      <c r="G43" s="95">
+      <c r="G43" s="122">
         <f t="shared" ref="G43" si="48">(D43+F43)/2</f>
         <v>4.1050868055555565</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="111">
         <v>71.873000000000005</v>
       </c>
-      <c r="I43" s="93"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="84">
+      <c r="I43" s="120"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="111">
         <v>0.71399999999999997</v>
       </c>
-      <c r="L43" s="84">
+      <c r="L43" s="111">
         <v>2.1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="5">
         <v>7.4999305555555553</v>
       </c>
-      <c r="D44" s="88"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="5">
         <v>11.250127314814813</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88" t="s">
+      <c r="A45" s="115"/>
+      <c r="B45" s="115" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="5">
         <v>4.1051388888888889</v>
       </c>
-      <c r="D45" s="88"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="5">
         <v>7.8551504629629632</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="84">
+      <c r="F45" s="115"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="111">
         <v>78.024000000000001</v>
       </c>
-      <c r="I45" s="92">
+      <c r="I45" s="119">
         <f t="shared" ref="I45" si="49">(H45+H47)/2</f>
         <v>78.020499999999998</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="117">
         <f t="shared" ref="J45" si="50">I45/ABS(H47-H45)</f>
         <v>11145.785714277748</v>
       </c>
-      <c r="K45" s="84">
+      <c r="K45" s="111">
         <v>1.214</v>
       </c>
-      <c r="L45" s="84">
+      <c r="L45" s="111">
         <v>1.7</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="6">
         <v>11.605115740740741</v>
       </c>
-      <c r="D46" s="88"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="6">
         <v>15.354999999999999</v>
       </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="115" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="114">
         <f t="shared" ref="D47" si="51">(C49-C47+C50-C48)/2</f>
         <v>10.859108796296297</v>
       </c>
       <c r="E47" s="4">
         <v>3.75</v>
       </c>
-      <c r="F47" s="87">
+      <c r="F47" s="114">
         <f t="shared" ref="F47" si="52">(E49-E47+E50-E48)/2</f>
         <v>10.859021990740739</v>
       </c>
-      <c r="G47" s="95">
+      <c r="G47" s="122">
         <f t="shared" ref="G47" si="53">(D47+F47)/2</f>
         <v>10.859065393518518</v>
       </c>
-      <c r="H47" s="84">
+      <c r="H47" s="111">
         <v>78.016999999999996</v>
       </c>
-      <c r="I47" s="93"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="84">
+      <c r="I47" s="120"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="111">
         <v>-0.81399999999999995</v>
       </c>
-      <c r="L47" s="84">
+      <c r="L47" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="5">
         <v>7.4999884259259266</v>
       </c>
-      <c r="D48" s="88"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="5">
         <v>11.25005787037037</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88" t="s">
+      <c r="A49" s="115"/>
+      <c r="B49" s="115" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="5">
         <v>10.859131944444444</v>
       </c>
-      <c r="D49" s="88"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="5">
         <v>14.609097222222223</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="84">
+      <c r="F49" s="115"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="111">
         <v>88.8</v>
       </c>
-      <c r="I49" s="92">
+      <c r="I49" s="119">
         <f t="shared" ref="I49" si="54">(H49+H51)/2</f>
         <v>88.795500000000004</v>
       </c>
-      <c r="J49" s="90">
+      <c r="J49" s="117">
         <f t="shared" ref="J49" si="55">I49/ABS(H51-H49)</f>
         <v>9866.1666666662932</v>
       </c>
-      <c r="K49" s="84">
+      <c r="K49" s="111">
         <v>1.127</v>
       </c>
-      <c r="L49" s="84">
+      <c r="L49" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="6">
         <v>18.359074074074076</v>
       </c>
-      <c r="D50" s="88"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="6">
         <v>22.109004629629627</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="115" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="114">
         <f t="shared" ref="D51" si="56">(C53-C51+C54-C52)/2</f>
         <v>6.7550000000000008</v>
       </c>
       <c r="E51" s="4">
         <v>3.75</v>
       </c>
-      <c r="F51" s="87">
+      <c r="F51" s="114">
         <f t="shared" ref="F51" si="57">(E53-E51+E54-E52)/2</f>
         <v>6.7549826388888894</v>
       </c>
-      <c r="G51" s="95">
+      <c r="G51" s="122">
         <f t="shared" ref="G51" si="58">(D51+F51)/2</f>
         <v>6.7549913194444446</v>
       </c>
-      <c r="H51" s="84">
+      <c r="H51" s="111">
         <v>88.790999999999997</v>
       </c>
-      <c r="I51" s="93"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="84">
+      <c r="I51" s="120"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="111">
         <v>-1.258</v>
       </c>
-      <c r="L51" s="84">
+      <c r="L51" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="115"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="5">
         <v>7.499837962962963</v>
       </c>
-      <c r="D52" s="88"/>
+      <c r="D52" s="115"/>
       <c r="E52" s="5">
         <v>11.249965277777777</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88" t="s">
+      <c r="A53" s="115"/>
+      <c r="B53" s="115" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="5">
         <v>6.7549305555555561</v>
       </c>
-      <c r="D53" s="88"/>
+      <c r="D53" s="115"/>
       <c r="E53" s="5">
         <v>10.504976851851852</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="84">
+      <c r="F53" s="115"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="111">
         <v>112.032</v>
       </c>
-      <c r="I53" s="92">
+      <c r="I53" s="119">
         <f t="shared" ref="I53" si="59">(H53+H55)/2</f>
         <v>112.0325</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53" s="117">
         <f t="shared" ref="J53" si="60">I53/ABS(H55-H53)</f>
         <v>112032.49999946506</v>
       </c>
-      <c r="K53" s="84">
+      <c r="K53" s="111">
         <v>5.5339999999999998</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="111">
         <v>1.35</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="6">
         <v>14.254907407407408</v>
       </c>
-      <c r="D54" s="88"/>
+      <c r="D54" s="115"/>
       <c r="E54" s="6">
         <v>18.004953703703702</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="115" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="114">
         <f t="shared" ref="D55" si="61">(C57-C55+C58-C56)/2</f>
         <v>5.059942129629631</v>
       </c>
       <c r="E55" s="4">
         <v>3.75</v>
       </c>
-      <c r="F55" s="87">
+      <c r="F55" s="114">
         <f t="shared" ref="F55" si="62">(E57-E55+E58-E56)/2</f>
         <v>5.0599768518518511</v>
       </c>
-      <c r="G55" s="95">
+      <c r="G55" s="122">
         <f t="shared" ref="G55" si="63">(D55+F55)/2</f>
         <v>5.0599594907407415</v>
       </c>
-      <c r="H55" s="84">
+      <c r="H55" s="111">
         <v>112.033</v>
       </c>
-      <c r="I55" s="93"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="84">
+      <c r="I55" s="120"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="111">
         <v>-5.6920000000000002</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="5">
         <v>7.5000115740740734</v>
       </c>
-      <c r="D56" s="88"/>
+      <c r="D56" s="115"/>
       <c r="E56" s="5">
         <v>11.250034722222223</v>
       </c>
-      <c r="F56" s="88"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88" t="s">
+      <c r="A57" s="115"/>
+      <c r="B57" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="5">
         <v>5.0599305555555558</v>
       </c>
-      <c r="D57" s="88"/>
+      <c r="D57" s="115"/>
       <c r="E57" s="5">
         <v>8.809976851851852</v>
       </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="84">
+      <c r="F57" s="115"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="111">
         <v>115.65600000000001</v>
       </c>
-      <c r="I57" s="92">
+      <c r="I57" s="119">
         <f t="shared" ref="I57" si="64">(H57+H59)/2</f>
         <v>115.652</v>
       </c>
-      <c r="J57" s="90">
+      <c r="J57" s="117">
         <f t="shared" ref="J57" si="65">I57/ABS(H59-H57)</f>
         <v>14456.499999982332</v>
       </c>
-      <c r="K57" s="84">
+      <c r="K57" s="111">
         <v>2.5419999999999998</v>
       </c>
-      <c r="L57" s="84">
+      <c r="L57" s="111">
         <v>1.35</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
+      <c r="A58" s="115"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="6">
         <v>12.559965277777778</v>
       </c>
-      <c r="D58" s="88"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="6">
         <v>16.310011574074075</v>
       </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="117"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="115" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
       </c>
-      <c r="D59" s="87">
+      <c r="D59" s="114">
         <f>(C61-C59+C62-C60)/2</f>
         <v>8.3021469907407397</v>
       </c>
       <c r="E59" s="4">
         <v>3.75</v>
       </c>
-      <c r="F59" s="87">
+      <c r="F59" s="114">
         <f t="shared" ref="F59" si="66">(E61-E59+E62-E60)/2</f>
         <v>8.3020833333333321</v>
       </c>
-      <c r="G59" s="95">
+      <c r="G59" s="122">
         <f t="shared" ref="G59" si="67">(D59+F59)/2</f>
         <v>8.3021151620370368</v>
       </c>
-      <c r="H59" s="84">
+      <c r="H59" s="111">
         <v>115.648</v>
       </c>
-      <c r="I59" s="93"/>
-      <c r="J59" s="90"/>
-      <c r="K59" s="84">
+      <c r="I59" s="120"/>
+      <c r="J59" s="117"/>
+      <c r="K59" s="111">
         <v>-2.8069999999999999</v>
       </c>
-      <c r="L59" s="84">
+      <c r="L59" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="115"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="5">
         <v>7.5000925925925932</v>
       </c>
-      <c r="D60" s="88"/>
+      <c r="D60" s="115"/>
       <c r="E60" s="5">
         <v>11.250150462962964</v>
       </c>
-      <c r="F60" s="88"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="123"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88" t="s">
+      <c r="A61" s="115"/>
+      <c r="B61" s="115" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="5">
         <v>8.3021296296296292</v>
       </c>
-      <c r="D61" s="88"/>
+      <c r="D61" s="115"/>
       <c r="E61" s="5">
         <v>12.052175925925924</v>
       </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="84">
+      <c r="F61" s="115"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="111">
         <v>88.119</v>
       </c>
-      <c r="I61" s="92">
+      <c r="I61" s="119">
         <f t="shared" ref="I61" si="68">(H61+H63)/2</f>
         <v>88.111999999999995</v>
       </c>
-      <c r="J61" s="90">
+      <c r="J61" s="117">
         <f t="shared" ref="J61" si="69">I61/ABS(H63-H61)</f>
         <v>6293.7142857161762</v>
       </c>
-      <c r="K61" s="84">
+      <c r="K61" s="111">
         <v>5.22</v>
       </c>
-      <c r="L61" s="84">
+      <c r="L61" s="111">
         <v>1.8</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="115"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="6">
         <v>15.802256944444444</v>
       </c>
-      <c r="D62" s="88"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="6">
         <v>19.552141203703702</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="88" t="s">
+      <c r="A63" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="115" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="114">
         <f>(C65-C63+C66-C64)/2</f>
         <v>4.7881134259259266</v>
       </c>
       <c r="E63" s="4">
         <v>3.75</v>
       </c>
-      <c r="F63" s="87">
+      <c r="F63" s="114">
         <f t="shared" ref="F63" si="70">(E65-E63+E66-E64)/2</f>
         <v>4.7881597222222219</v>
       </c>
-      <c r="G63" s="95">
+      <c r="G63" s="122">
         <f t="shared" ref="G63" si="71">(D63+F63)/2</f>
         <v>4.7881365740740742</v>
       </c>
-      <c r="H63" s="84">
+      <c r="H63" s="111">
         <v>88.105000000000004</v>
       </c>
-      <c r="I63" s="93"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="84">
+      <c r="I63" s="120"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="111">
         <v>-4.9249999999999998</v>
       </c>
-      <c r="L63" s="84">
+      <c r="L63" s="111">
         <v>1.4</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
+      <c r="A64" s="115"/>
+      <c r="B64" s="115"/>
       <c r="C64" s="5">
         <v>7.5001157407407399</v>
       </c>
-      <c r="D64" s="88"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="5">
         <v>11.25005787037037</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="88"/>
-      <c r="B65" s="88" t="s">
+      <c r="A65" s="115"/>
+      <c r="B65" s="115" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="5">
         <v>4.7882175925925923</v>
       </c>
-      <c r="D65" s="88"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="5">
         <v>8.5381481481481476</v>
       </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="84">
+      <c r="F65" s="115"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="111">
         <v>126.755</v>
       </c>
-      <c r="I65" s="92">
+      <c r="I65" s="119">
         <f t="shared" ref="I65" si="72">(H65+H67)/2</f>
         <v>126.747</v>
       </c>
-      <c r="J65" s="90">
+      <c r="J65" s="117">
         <f t="shared" ref="J65" si="73">I65/ABS(H67-H65)</f>
         <v>7921.6875000043901</v>
       </c>
-      <c r="K65" s="84">
+      <c r="K65" s="111">
         <v>-2.7429999999999999</v>
       </c>
-      <c r="L65" s="84">
+      <c r="L65" s="111">
         <v>1.55</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="6">
         <v>12.288125000000001</v>
       </c>
-      <c r="D66" s="88"/>
+      <c r="D66" s="115"/>
       <c r="E66" s="6">
         <v>16.038229166666667</v>
       </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="120"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="115" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
       </c>
-      <c r="D67" s="87">
+      <c r="D67" s="114">
         <f>(C69-C67+C70-C68)/2</f>
         <v>7.9803587962962954</v>
       </c>
       <c r="E67" s="4">
         <v>3.75</v>
       </c>
-      <c r="F67" s="87">
+      <c r="F67" s="114">
         <f t="shared" ref="F67" si="74">(E69-E67+E70-E68)/2</f>
         <v>7.9802256944444441</v>
       </c>
-      <c r="G67" s="95">
+      <c r="G67" s="122">
         <f t="shared" ref="G67" si="75">(D67+F67)/2</f>
         <v>7.9802922453703697</v>
       </c>
-      <c r="H67" s="84">
+      <c r="H67" s="111">
         <v>126.739</v>
       </c>
-      <c r="I67" s="93"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="84">
+      <c r="I67" s="120"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="111">
         <v>3.444</v>
       </c>
-      <c r="L67" s="84">
+      <c r="L67" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
+      <c r="A68" s="115"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="5">
         <v>7.4998611111111115</v>
       </c>
-      <c r="D68" s="88"/>
+      <c r="D68" s="115"/>
       <c r="E68" s="5">
         <v>11.24994212962963</v>
       </c>
-      <c r="F68" s="88"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="117"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88" t="s">
+      <c r="A69" s="115"/>
+      <c r="B69" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="5">
         <v>7.9803935185185182</v>
       </c>
-      <c r="D69" s="88"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="5">
         <v>11.730243055555555</v>
       </c>
-      <c r="F69" s="88"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="84">
+      <c r="F69" s="115"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="111">
         <v>91.695999999999998</v>
       </c>
-      <c r="I69" s="92">
+      <c r="I69" s="119">
         <f t="shared" ref="I69" si="76">(H69+H71)/2</f>
         <v>91.6875</v>
       </c>
-      <c r="J69" s="90">
+      <c r="J69" s="117">
         <f t="shared" ref="J69" si="77">I69/ABS(H71-H69)</f>
         <v>5393.3823529424753</v>
       </c>
-      <c r="K69" s="84">
+      <c r="K69" s="111">
         <v>-1.6160000000000001</v>
       </c>
-      <c r="L69" s="84">
+      <c r="L69" s="111">
         <v>1.3</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
+      <c r="A70" s="115"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="6">
         <v>15.480185185185185</v>
       </c>
-      <c r="D70" s="88"/>
+      <c r="D70" s="115"/>
       <c r="E70" s="6">
         <v>19.230150462962964</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="93"/>
-      <c r="J70" s="90"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="123"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="120"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="111"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="88" t="s">
+      <c r="A71" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="88" t="s">
+      <c r="B71" s="115" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
       </c>
-      <c r="D71" s="87">
+      <c r="D71" s="114">
         <f>(C73-C71+C74-C72)/2</f>
         <v>6.2006828703703718</v>
       </c>
       <c r="E71" s="4">
         <v>3.75</v>
       </c>
-      <c r="F71" s="87">
+      <c r="F71" s="114">
         <f t="shared" ref="F71" si="78">(E73-E71+E74-E72)/2</f>
         <v>6.2007118055555557</v>
       </c>
-      <c r="G71" s="95">
+      <c r="G71" s="122">
         <f t="shared" ref="G71" si="79">(D71+F71)/2</f>
         <v>6.2006973379629642</v>
       </c>
-      <c r="H71" s="84">
+      <c r="H71" s="111">
         <v>91.679000000000002</v>
       </c>
-      <c r="I71" s="93"/>
-      <c r="J71" s="90"/>
-      <c r="K71" s="84">
+      <c r="I71" s="120"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="111">
         <v>1.788</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="111">
         <v>1.6</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
+      <c r="A72" s="115"/>
+      <c r="B72" s="115"/>
       <c r="C72" s="5">
         <v>7.4999074074074068</v>
       </c>
-      <c r="D72" s="88"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="5">
         <v>11.250069444444444</v>
       </c>
-      <c r="F72" s="88"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="111"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88" t="s">
+      <c r="A73" s="115"/>
+      <c r="B73" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="5">
         <v>6.2005787037037043</v>
       </c>
-      <c r="D73" s="88"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="5">
         <v>9.9507291666666671</v>
       </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="84">
+      <c r="F73" s="115"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="111">
         <v>92.477000000000004</v>
       </c>
-      <c r="I73" s="92">
+      <c r="I73" s="119">
         <f t="shared" ref="I73" si="80">(H73+H75)/2</f>
         <v>92.484499999999997</v>
       </c>
-      <c r="J73" s="90">
+      <c r="J73" s="117">
         <f t="shared" ref="J73" si="81">I73/ABS(H75-H73)</f>
         <v>6165.6333333330995</v>
       </c>
-      <c r="K73" s="84">
+      <c r="K73" s="111">
         <v>0.90200000000000002</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="111">
         <v>1.75</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="6">
         <v>13.700694444444444</v>
       </c>
-      <c r="D74" s="88"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="6">
         <v>17.45076388888889</v>
       </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="111"/>
+      <c r="I74" s="120"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="111"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="88" t="s">
+      <c r="A75" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
       </c>
-      <c r="D75" s="87">
+      <c r="D75" s="114">
         <f>(C77-C75+C78-C76)/2</f>
         <v>4.6066724537037054</v>
       </c>
       <c r="E75" s="4">
         <v>3.75</v>
       </c>
-      <c r="F75" s="87">
+      <c r="F75" s="114">
         <f t="shared" ref="F75" si="82">(E77-E75+E78-E76)/2</f>
         <v>4.6066666666666682</v>
       </c>
-      <c r="G75" s="95">
+      <c r="G75" s="122">
         <f t="shared" ref="G75" si="83">(D75+F75)/2</f>
         <v>4.6066695601851873</v>
       </c>
-      <c r="H75" s="84">
+      <c r="H75" s="111">
         <v>92.492000000000004</v>
       </c>
-      <c r="I75" s="93"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="84">
+      <c r="I75" s="120"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="111">
         <v>1.5860000000000001</v>
       </c>
-      <c r="L75" s="84">
+      <c r="L75" s="111">
         <v>1.6</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="5">
         <v>7.5000115740740734</v>
       </c>
-      <c r="D76" s="88"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="5">
         <v>11.250023148148147</v>
       </c>
-      <c r="F76" s="88"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="90"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="123"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="117"/>
+      <c r="K76" s="111"/>
+      <c r="L76" s="111"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88" t="s">
+      <c r="A77" s="115"/>
+      <c r="B77" s="115" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="5">
         <v>4.6067129629629635</v>
       </c>
-      <c r="D77" s="88"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="5">
         <v>8.3566666666666674</v>
       </c>
-      <c r="F77" s="88"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="84">
+      <c r="F77" s="115"/>
+      <c r="G77" s="123"/>
+      <c r="H77" s="111">
         <v>105.96599999999999</v>
       </c>
-      <c r="I77" s="97">
+      <c r="I77" s="124">
         <f>I3</f>
         <v>105.9735</v>
       </c>
-      <c r="J77" s="90">
+      <c r="J77" s="117">
         <f>J3</f>
         <v>7064.8999999997322</v>
       </c>
-      <c r="K77" s="84">
+      <c r="K77" s="111">
         <v>-3.3639999999999999</v>
       </c>
-      <c r="L77" s="84">
+      <c r="L77" s="111">
         <v>1.65</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="6">
         <v>12.106643518518519</v>
       </c>
-      <c r="D78" s="88"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="6">
         <v>15.856689814814814</v>
       </c>
-      <c r="F78" s="88"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
+      <c r="F78" s="115"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="111"/>
+      <c r="L78" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="269">
@@ -3797,6 +3888,7 @@
     <mergeCell ref="I57:I60"/>
     <mergeCell ref="I61:I64"/>
     <mergeCell ref="I25:I28"/>
+    <mergeCell ref="I73:I76"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
@@ -3912,6 +4004,7 @@
     <mergeCell ref="I21:I24"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="K19:K20"/>
@@ -3921,6 +4014,7 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="L11:L12"/>
@@ -3979,7 +4073,6 @@
     <mergeCell ref="J57:J60"/>
     <mergeCell ref="I65:I68"/>
     <mergeCell ref="I69:I72"/>
-    <mergeCell ref="I73:I76"/>
     <mergeCell ref="L73:L74"/>
     <mergeCell ref="L75:L76"/>
     <mergeCell ref="H3:H4"/>
@@ -4004,8 +4097,6 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K27:K28"/>
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="H5:H6"/>
@@ -4101,11 +4192,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="19">
         <v>6.8352546296296302</v>
       </c>
@@ -4127,30 +4218,30 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
     </row>
     <row r="4" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A4" s="67"/>
@@ -4177,73 +4268,73 @@
       <c r="V4" s="67"/>
     </row>
     <row r="5" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99" t="s">
+      <c r="H5" s="126"/>
+      <c r="I5" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="99" t="s">
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99" t="s">
+      <c r="N5" s="126"/>
+      <c r="O5" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99" t="s">
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99" t="s">
+      <c r="R5" s="126"/>
+      <c r="S5" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99" t="s">
+      <c r="T5" s="126"/>
+      <c r="U5" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="99" t="s">
+      <c r="V5" s="126" t="s">
         <v>41</v>
       </c>
       <c r="W5" s="7"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
       <c r="M6" s="59" t="s">
         <v>42</v>
       </c>
@@ -4268,8 +4359,8 @@
       <c r="T6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="101"/>
-      <c r="V6" s="99"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70"/>
@@ -6016,6 +6107,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A5:A6"/>
@@ -6031,8 +6124,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6078,11 +6169,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="D1" s="19">
         <v>6.8352546296296302</v>
       </c>
@@ -6106,30 +6197,30 @@
       <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A4" s="67"/>
@@ -6180,72 +6271,72 @@
       <c r="V5" s="67"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106" t="s">
+      <c r="F6" s="132"/>
+      <c r="G6" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105" t="s">
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105" t="s">
+      <c r="N6" s="132"/>
+      <c r="O6" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105" t="s">
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105" t="s">
+      <c r="R6" s="132"/>
+      <c r="S6" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105" t="s">
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="105" t="s">
+      <c r="V6" s="132" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
       <c r="M7" s="65" t="s">
         <v>42</v>
       </c>
@@ -6270,8 +6361,8 @@
       <c r="T7" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -7196,11 +7287,11 @@
         <f>-SUM($C$9:C19)/$C$21*$P$21</f>
         <v>-6.2126285047270358E-2</v>
       </c>
-      <c r="S19" s="108">
+      <c r="S19" s="84">
         <f t="shared" si="10"/>
         <v>3063320.9043927426</v>
       </c>
-      <c r="T19" s="108">
+      <c r="T19" s="84">
         <f t="shared" si="11"/>
         <v>627166.39678137505</v>
       </c>
@@ -7440,6 +7531,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:V3"/>
     <mergeCell ref="A6:A7"/>
@@ -7455,8 +7548,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7467,8 +7558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E657030-2ACE-423F-B5B3-AA9E08D1B57B}">
   <dimension ref="A3:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7477,349 +7568,349 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="129" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="7" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="Q7" s="130"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="Q7" s="96"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="137" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="122" t="s">
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10" s="93">
         <v>1.216</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="93">
         <v>1.115</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="93">
         <v>1.0149999999999999</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="93">
         <f>(D10+E10+F10)/3</f>
         <v>1.1153333333333333</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="140">
         <f>E11-E10</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="139"/>
+      <c r="C11" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="94">
         <v>1.2649999999999999</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="94">
         <v>1.165</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="94">
         <v>1.0640000000000001</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="94">
         <f>(D11+E11+F11)/3</f>
         <v>1.1646666666666665</v>
       </c>
-      <c r="H11" s="128"/>
+      <c r="H11" s="141"/>
     </row>
     <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="Q13" s="130"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="Q13" s="96"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="137" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="122" t="s">
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="125">
+      <c r="D16" s="93">
         <v>1.167</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="93">
         <v>1.147</v>
       </c>
-      <c r="F16" s="125">
+      <c r="F16" s="93">
         <v>1.127</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="93">
         <f>(D16+E16+F16)/3</f>
         <v>1.147</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="140">
         <f>E17-E16</f>
         <v>5.600000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="94">
         <v>1.3839999999999999</v>
       </c>
-      <c r="E17" s="127">
+      <c r="E17" s="94">
         <v>1.2030000000000001</v>
       </c>
-      <c r="F17" s="127">
+      <c r="F17" s="94">
         <v>1.022</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="94">
         <f>(D17+E17+F17)/3</f>
         <v>1.2030000000000001</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="141"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="119"/>
+      <c r="C19" s="144"/>
       <c r="D19">
         <f>H16-H10</f>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="116"/>
+      <c r="C20" s="145"/>
       <c r="D20">
         <f>32/D19</f>
         <v>5333.3333333333285</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121" t="s">
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="120" t="s">
+      <c r="G30" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="120" t="s">
+      <c r="H30" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121" t="s">
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="L30" s="120" t="s">
+      <c r="L30" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="120" t="s">
+      <c r="M30" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="N30" s="120" t="s">
+      <c r="N30" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="O30" s="120" t="s">
+      <c r="O30" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P30" s="121" t="s">
+      <c r="P30" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q30" s="131" t="s">
+      <c r="Q30" s="142" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="121"/>
-      <c r="C31" s="122" t="s">
+      <c r="B31" s="137"/>
+      <c r="C31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="122" t="s">
+      <c r="E31" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="122" t="s">
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="122" t="s">
+      <c r="I31" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="122" t="s">
+      <c r="J31" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="132"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="143"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -7842,19 +7933,19 @@
         <f>C32-E32</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8">
         <f>(G32+L32)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q32" s="129">
+      <c r="Q32" s="95">
         <f>P32*100</f>
         <v>14.000000000000002</v>
       </c>
@@ -7910,7 +8001,7 @@
         <f t="shared" ref="P33:P49" si="2">(G33+L33)</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="Q33" s="129">
+      <c r="Q33" s="95">
         <f t="shared" ref="Q33:Q50" si="3">P33*100</f>
         <v>35.999999999999986</v>
       </c>
@@ -7966,7 +8057,7 @@
         <f t="shared" si="2"/>
         <v>0.35299999999999998</v>
       </c>
-      <c r="Q34" s="129">
+      <c r="Q34" s="95">
         <f t="shared" si="3"/>
         <v>35.299999999999997</v>
       </c>
@@ -8022,7 +8113,7 @@
         <f t="shared" si="2"/>
         <v>0.30199999999999982</v>
       </c>
-      <c r="Q35" s="129">
+      <c r="Q35" s="95">
         <f t="shared" si="3"/>
         <v>30.199999999999982</v>
       </c>
@@ -8078,7 +8169,7 @@
         <f t="shared" si="2"/>
         <v>0.35699999999999998</v>
       </c>
-      <c r="Q36" s="129">
+      <c r="Q36" s="95">
         <f t="shared" si="3"/>
         <v>35.699999999999996</v>
       </c>
@@ -8134,7 +8225,7 @@
         <f t="shared" si="2"/>
         <v>0.42500000000000016</v>
       </c>
-      <c r="Q37" s="129">
+      <c r="Q37" s="95">
         <f t="shared" si="3"/>
         <v>42.500000000000014</v>
       </c>
@@ -8190,7 +8281,7 @@
         <f t="shared" si="2"/>
         <v>0.42200000000000015</v>
       </c>
-      <c r="Q38" s="129">
+      <c r="Q38" s="95">
         <f t="shared" si="3"/>
         <v>42.200000000000017</v>
       </c>
@@ -8246,7 +8337,7 @@
         <f t="shared" si="2"/>
         <v>0.3899999999999999</v>
       </c>
-      <c r="Q39" s="129">
+      <c r="Q39" s="95">
         <f t="shared" si="3"/>
         <v>38.999999999999993</v>
       </c>
@@ -8302,7 +8393,7 @@
         <f t="shared" si="2"/>
         <v>0.36199999999999988</v>
       </c>
-      <c r="Q40" s="129">
+      <c r="Q40" s="95">
         <f t="shared" si="3"/>
         <v>36.199999999999989</v>
       </c>
@@ -8358,7 +8449,7 @@
         <f t="shared" si="2"/>
         <v>0.29499999999999993</v>
       </c>
-      <c r="Q41" s="129">
+      <c r="Q41" s="95">
         <f t="shared" si="3"/>
         <v>29.499999999999993</v>
       </c>
@@ -8414,7 +8505,7 @@
         <f t="shared" si="2"/>
         <v>0.29199999999999982</v>
       </c>
-      <c r="Q42" s="129">
+      <c r="Q42" s="95">
         <f t="shared" si="3"/>
         <v>29.199999999999982</v>
       </c>
@@ -8470,7 +8561,7 @@
         <f t="shared" si="2"/>
         <v>0.27099999999999991</v>
       </c>
-      <c r="Q43" s="129">
+      <c r="Q43" s="95">
         <f t="shared" si="3"/>
         <v>27.099999999999991</v>
       </c>
@@ -8526,7 +8617,7 @@
         <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
-      <c r="Q44" s="129">
+      <c r="Q44" s="95">
         <f t="shared" si="3"/>
         <v>26.6</v>
       </c>
@@ -8582,7 +8673,7 @@
         <f t="shared" si="2"/>
         <v>0.28500000000000014</v>
       </c>
-      <c r="Q45" s="129">
+      <c r="Q45" s="95">
         <f t="shared" si="3"/>
         <v>28.500000000000014</v>
       </c>
@@ -8638,7 +8729,7 @@
         <f t="shared" si="2"/>
         <v>0.27499999999999969</v>
       </c>
-      <c r="Q46" s="129">
+      <c r="Q46" s="95">
         <f t="shared" si="3"/>
         <v>27.499999999999968</v>
       </c>
@@ -8694,7 +8785,7 @@
         <f t="shared" si="2"/>
         <v>0.28399999999999992</v>
       </c>
-      <c r="Q47" s="129">
+      <c r="Q47" s="95">
         <f t="shared" si="3"/>
         <v>28.399999999999991</v>
       </c>
@@ -8750,7 +8841,7 @@
         <f t="shared" si="2"/>
         <v>0.24700000000000011</v>
       </c>
-      <c r="Q48" s="129">
+      <c r="Q48" s="95">
         <f t="shared" si="3"/>
         <v>24.70000000000001</v>
       </c>
@@ -8759,11 +8850,11 @@
       <c r="B49" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="8">
         <v>0.86499999999999999</v>
       </c>
@@ -8794,7 +8885,7 @@
         <f t="shared" si="2"/>
         <v>0.11299999999999999</v>
       </c>
-      <c r="Q49" s="129">
+      <c r="Q49" s="95">
         <f t="shared" si="3"/>
         <v>11.299999999999999</v>
       </c>
@@ -8820,120 +8911,120 @@
         <f>SUM(P32:P49)</f>
         <v>5.4389999999999983</v>
       </c>
-      <c r="Q50" s="130">
+      <c r="Q50" s="96">
         <f t="shared" si="3"/>
         <v>543.89999999999986</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="135">
+      <c r="F51" s="149">
         <f>F50-K50</f>
         <v>2.075333333333333</v>
       </c>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="M51" s="135">
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
+      <c r="M51" s="149">
         <f>M50-N50</f>
         <v>2.0753333333333326</v>
       </c>
-      <c r="N51" s="135"/>
-      <c r="Q51" s="130"/>
+      <c r="N51" s="149"/>
+      <c r="Q51" s="96"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F52" s="134"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="121" t="s">
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="120" t="s">
+      <c r="G55" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="H55" s="120" t="s">
+      <c r="H55" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="121" t="s">
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="L55" s="120" t="s">
+      <c r="L55" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="M55" s="120" t="s">
+      <c r="M55" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="N55" s="120" t="s">
+      <c r="N55" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="O55" s="120" t="s">
+      <c r="O55" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P55" s="121" t="s">
+      <c r="P55" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q55" s="131" t="s">
+      <c r="Q55" s="142" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="121"/>
-      <c r="C56" s="122" t="s">
+      <c r="B56" s="137"/>
+      <c r="C56" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="122" t="s">
+      <c r="E56" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="122" t="s">
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="122" t="s">
+      <c r="I56" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J56" s="122" t="s">
+      <c r="J56" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="132"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="143"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -8956,19 +9047,19 @@
         <f>C57-E57</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123"/>
-      <c r="M57" s="123"/>
-      <c r="N57" s="123"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8">
         <f>(G57+L57)</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="Q57" s="129">
+      <c r="Q57" s="95">
         <f>P57*100</f>
         <v>14.600000000000001</v>
       </c>
@@ -9024,7 +9115,7 @@
         <f t="shared" ref="P58:P78" si="10">(G58+L58)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q58" s="129">
+      <c r="Q58" s="95">
         <f t="shared" ref="Q58:Q79" si="11">P58*100</f>
         <v>28.000000000000004</v>
       </c>
@@ -9080,7 +9171,7 @@
         <f t="shared" si="10"/>
         <v>0.26300000000000012</v>
       </c>
-      <c r="Q59" s="129">
+      <c r="Q59" s="95">
         <f t="shared" si="11"/>
         <v>26.300000000000011</v>
       </c>
@@ -9136,7 +9227,7 @@
         <f t="shared" si="10"/>
         <v>0.28299999999999992</v>
       </c>
-      <c r="Q60" s="129">
+      <c r="Q60" s="95">
         <f t="shared" si="11"/>
         <v>28.29999999999999</v>
       </c>
@@ -9192,7 +9283,7 @@
         <f t="shared" si="10"/>
         <v>0.29399999999999982</v>
       </c>
-      <c r="Q61" s="129">
+      <c r="Q61" s="95">
         <f t="shared" si="11"/>
         <v>29.399999999999981</v>
       </c>
@@ -9248,7 +9339,7 @@
         <f t="shared" si="10"/>
         <v>0.28500000000000014</v>
       </c>
-      <c r="Q62" s="129">
+      <c r="Q62" s="95">
         <f t="shared" si="11"/>
         <v>28.500000000000014</v>
       </c>
@@ -9304,7 +9395,7 @@
         <f t="shared" si="10"/>
         <v>0.25900000000000012</v>
       </c>
-      <c r="Q63" s="129">
+      <c r="Q63" s="95">
         <f t="shared" si="11"/>
         <v>25.900000000000013</v>
       </c>
@@ -9360,7 +9451,7 @@
         <f t="shared" si="10"/>
         <v>0.27600000000000025</v>
       </c>
-      <c r="Q64" s="129">
+      <c r="Q64" s="95">
         <f t="shared" si="11"/>
         <v>27.600000000000023</v>
       </c>
@@ -9416,7 +9507,7 @@
         <f t="shared" si="10"/>
         <v>0.27499999999999991</v>
       </c>
-      <c r="Q65" s="129">
+      <c r="Q65" s="95">
         <f t="shared" si="11"/>
         <v>27.499999999999993</v>
       </c>
@@ -9472,7 +9563,7 @@
         <f t="shared" si="10"/>
         <v>0.27099999999999991</v>
       </c>
-      <c r="Q66" s="129">
+      <c r="Q66" s="95">
         <f t="shared" si="11"/>
         <v>27.099999999999991</v>
       </c>
@@ -9528,7 +9619,7 @@
         <f t="shared" si="10"/>
         <v>0.2649999999999999</v>
       </c>
-      <c r="Q67" s="129">
+      <c r="Q67" s="95">
         <f t="shared" si="11"/>
         <v>26.499999999999989</v>
       </c>
@@ -9584,7 +9675,7 @@
         <f t="shared" si="10"/>
         <v>0.25499999999999989</v>
       </c>
-      <c r="Q68" s="129">
+      <c r="Q68" s="95">
         <f t="shared" si="11"/>
         <v>25.499999999999989</v>
       </c>
@@ -9640,7 +9731,7 @@
         <f t="shared" si="10"/>
         <v>0.25400000000000023</v>
       </c>
-      <c r="Q69" s="129">
+      <c r="Q69" s="95">
         <f t="shared" si="11"/>
         <v>25.400000000000023</v>
       </c>
@@ -9696,7 +9787,7 @@
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="Q70" s="129">
+      <c r="Q70" s="95">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
@@ -9752,7 +9843,7 @@
         <f t="shared" si="10"/>
         <v>0.25500000000000012</v>
       </c>
-      <c r="Q71" s="129">
+      <c r="Q71" s="95">
         <f t="shared" si="11"/>
         <v>25.500000000000011</v>
       </c>
@@ -9808,7 +9899,7 @@
         <f t="shared" si="10"/>
         <v>0.27</v>
       </c>
-      <c r="Q72" s="129">
+      <c r="Q72" s="95">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
@@ -9864,7 +9955,7 @@
         <f t="shared" si="10"/>
         <v>0.26900000000000002</v>
       </c>
-      <c r="Q73" s="129">
+      <c r="Q73" s="95">
         <f t="shared" si="11"/>
         <v>26.900000000000002</v>
       </c>
@@ -9920,7 +10011,7 @@
         <f t="shared" si="10"/>
         <v>0.24500000000000011</v>
       </c>
-      <c r="Q74" s="129">
+      <c r="Q74" s="95">
         <f t="shared" si="11"/>
         <v>24.500000000000011</v>
       </c>
@@ -9976,7 +10067,7 @@
         <f t="shared" si="10"/>
         <v>0.24400000000000022</v>
       </c>
-      <c r="Q75" s="129">
+      <c r="Q75" s="95">
         <f t="shared" si="11"/>
         <v>24.40000000000002</v>
       </c>
@@ -10032,7 +10123,7 @@
         <f t="shared" si="10"/>
         <v>0.24900000000000011</v>
       </c>
-      <c r="Q76" s="129">
+      <c r="Q76" s="95">
         <f t="shared" si="11"/>
         <v>24.900000000000013</v>
       </c>
@@ -10088,7 +10179,7 @@
         <f t="shared" si="10"/>
         <v>0.25800000000000001</v>
       </c>
-      <c r="Q77" s="129">
+      <c r="Q77" s="95">
         <f t="shared" si="11"/>
         <v>25.8</v>
       </c>
@@ -10097,11 +10188,11 @@
       <c r="B78" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="123"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="123"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="8">
         <v>0.75800000000000001</v>
       </c>
@@ -10132,7 +10223,7 @@
         <f t="shared" si="10"/>
         <v>0.124</v>
       </c>
-      <c r="Q78" s="129">
+      <c r="Q78" s="95">
         <f t="shared" si="11"/>
         <v>12.4</v>
       </c>
@@ -10158,38 +10249,38 @@
         <f>SUM(P57:P78)</f>
         <v>5.5700000000000021</v>
       </c>
-      <c r="Q79" s="129">
+      <c r="Q79" s="95">
         <f t="shared" si="11"/>
         <v>557.00000000000023</v>
       </c>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F80" s="135">
+      <c r="F80" s="149">
         <f>K79-F79</f>
         <v>2.0836666666666694</v>
       </c>
-      <c r="G80" s="136"/>
-      <c r="H80" s="136"/>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136"/>
-      <c r="K80" s="136"/>
-      <c r="M80" s="135">
+      <c r="G80" s="150"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="150"/>
+      <c r="M80" s="149">
         <f>N79-M79</f>
         <v>2.0836666666666663</v>
       </c>
-      <c r="N80" s="135"/>
+      <c r="N80" s="149"/>
       <c r="P80" s="8"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F81" s="137"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="137"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="137"/>
-      <c r="K81" s="137"/>
-      <c r="L81" s="137"/>
-      <c r="M81" s="137"/>
-      <c r="N81" s="137"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="98"/>
+      <c r="K81" s="98"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="98"/>
+      <c r="N81" s="98"/>
       <c r="P81" s="8"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
@@ -10198,18 +10289,18 @@
       </c>
       <c r="D82" s="148"/>
       <c r="E82" s="148"/>
-      <c r="F82" s="149">
+      <c r="F82" s="109">
         <f>(M80+M51)/2</f>
         <v>2.0794999999999995</v>
       </c>
-      <c r="G82" s="110"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="137"/>
-      <c r="J82" s="137"/>
-      <c r="K82" s="137"/>
-      <c r="L82" s="137"/>
-      <c r="M82" s="137"/>
-      <c r="N82" s="137"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
+      <c r="L82" s="98"/>
+      <c r="M82" s="98"/>
+      <c r="N82" s="98"/>
       <c r="P82" s="8"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
@@ -10218,18 +10309,18 @@
       </c>
       <c r="D83" s="148"/>
       <c r="E83" s="148"/>
-      <c r="F83" s="149">
+      <c r="F83" s="109">
         <f>ABS(M80-M51)</f>
         <v>8.3333333333337478E-3</v>
       </c>
-      <c r="G83" s="110"/>
-      <c r="H83" s="110"/>
-      <c r="I83" s="137"/>
-      <c r="J83" s="137"/>
-      <c r="K83" s="137"/>
-      <c r="L83" s="137"/>
-      <c r="M83" s="137"/>
-      <c r="N83" s="137"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="98"/>
+      <c r="J83" s="98"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="98"/>
+      <c r="N83" s="98"/>
       <c r="P83" s="8"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -10238,144 +10329,144 @@
       </c>
       <c r="D84" s="148"/>
       <c r="E84" s="148"/>
-      <c r="F84" s="150">
+      <c r="F84" s="110">
         <f>(24*SQRT((Q50+Q79)/1000))/1000</f>
         <v>2.5181707646623173E-2</v>
       </c>
-      <c r="G84" s="137"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
-      <c r="K84" s="137"/>
-      <c r="L84" s="137"/>
-      <c r="M84" s="137"/>
-      <c r="N84" s="137"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="98"/>
+      <c r="N84" s="98"/>
       <c r="P84" s="8"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C85" s="138"/>
-      <c r="D85" s="138"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="137"/>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137"/>
-      <c r="K85" s="137"/>
-      <c r="L85" s="137"/>
-      <c r="M85" s="137"/>
-      <c r="N85" s="137"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="98"/>
+      <c r="K85" s="98"/>
+      <c r="L85" s="98"/>
+      <c r="M85" s="98"/>
+      <c r="N85" s="98"/>
       <c r="P85" s="8"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="137"/>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137"/>
-      <c r="K86" s="137"/>
-      <c r="L86" s="137"/>
-      <c r="M86" s="137"/>
-      <c r="N86" s="137"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="98"/>
+      <c r="J86" s="98"/>
+      <c r="K86" s="98"/>
+      <c r="L86" s="98"/>
+      <c r="M86" s="98"/>
+      <c r="N86" s="98"/>
       <c r="P86" s="8"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F87" s="137"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="137"/>
-      <c r="I87" s="137"/>
-      <c r="J87" s="137"/>
-      <c r="K87" s="137"/>
-      <c r="L87" s="137"/>
-      <c r="M87" s="137"/>
-      <c r="N87" s="137"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="98"/>
+      <c r="L87" s="98"/>
+      <c r="M87" s="98"/>
+      <c r="N87" s="98"/>
       <c r="P87" s="8"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="124" t="s">
+      <c r="B88" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="124"/>
-      <c r="D88" s="124"/>
-      <c r="E88" s="124"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="124"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="147"/>
+      <c r="F88" s="147"/>
+      <c r="G88" s="147"/>
+      <c r="H88" s="147"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="121" t="s">
+      <c r="B89" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="120" t="s">
+      <c r="C89" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="120"/>
-      <c r="E89" s="120"/>
-      <c r="F89" s="121" t="s">
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="G89" s="120" t="s">
+      <c r="G89" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="H89" s="120" t="s">
+      <c r="H89" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="I89" s="120"/>
-      <c r="J89" s="120"/>
-      <c r="K89" s="121" t="s">
+      <c r="I89" s="136"/>
+      <c r="J89" s="136"/>
+      <c r="K89" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="L89" s="120" t="s">
+      <c r="L89" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="M89" s="120" t="s">
+      <c r="M89" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="N89" s="120" t="s">
+      <c r="N89" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="O89" s="120" t="s">
+      <c r="O89" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P89" s="121" t="s">
+      <c r="P89" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q89" s="131" t="s">
+      <c r="Q89" s="142" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="121"/>
-      <c r="C90" s="122" t="s">
+      <c r="B90" s="137"/>
+      <c r="C90" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D90" s="122" t="s">
+      <c r="D90" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E90" s="122" t="s">
+      <c r="E90" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="122" t="s">
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="I90" s="122" t="s">
+      <c r="I90" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J90" s="122" t="s">
+      <c r="J90" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="K90" s="120"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="120"/>
-      <c r="N90" s="120"/>
-      <c r="O90" s="120"/>
-      <c r="P90" s="120"/>
-      <c r="Q90" s="132"/>
+      <c r="K90" s="136"/>
+      <c r="L90" s="136"/>
+      <c r="M90" s="136"/>
+      <c r="N90" s="136"/>
+      <c r="O90" s="136"/>
+      <c r="P90" s="136"/>
+      <c r="Q90" s="143"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -10398,19 +10489,19 @@
         <f>C91-E91</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="H91" s="123"/>
-      <c r="I91" s="123"/>
-      <c r="J91" s="123"/>
-      <c r="K91" s="123"/>
-      <c r="L91" s="123"/>
-      <c r="M91" s="123"/>
-      <c r="N91" s="123"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
+      <c r="M91" s="92"/>
+      <c r="N91" s="92"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8">
         <f>(G91+L91)</f>
         <v>0.14600000000000002</v>
       </c>
-      <c r="Q91" s="129">
+      <c r="Q91" s="95">
         <f>P91*100</f>
         <v>14.600000000000001</v>
       </c>
@@ -10466,7 +10557,7 @@
         <f t="shared" ref="P92:P98" si="18">(G92+L92)</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q92" s="129">
+      <c r="Q92" s="95">
         <f t="shared" ref="Q92:Q99" si="19">P92*100</f>
         <v>28.000000000000004</v>
       </c>
@@ -10522,7 +10613,7 @@
         <f t="shared" si="18"/>
         <v>0.26300000000000012</v>
       </c>
-      <c r="Q93" s="129">
+      <c r="Q93" s="95">
         <f t="shared" si="19"/>
         <v>26.300000000000011</v>
       </c>
@@ -10578,7 +10669,7 @@
         <f t="shared" si="18"/>
         <v>0.28299999999999992</v>
       </c>
-      <c r="Q94" s="129">
+      <c r="Q94" s="95">
         <f t="shared" si="19"/>
         <v>28.29999999999999</v>
       </c>
@@ -10634,7 +10725,7 @@
         <f t="shared" si="18"/>
         <v>0.29399999999999982</v>
       </c>
-      <c r="Q95" s="129">
+      <c r="Q95" s="95">
         <f t="shared" si="19"/>
         <v>29.399999999999981</v>
       </c>
@@ -10690,7 +10781,7 @@
         <f t="shared" si="18"/>
         <v>0.28500000000000014</v>
       </c>
-      <c r="Q96" s="129">
+      <c r="Q96" s="95">
         <f t="shared" si="19"/>
         <v>28.500000000000014</v>
       </c>
@@ -10746,7 +10837,7 @@
         <f t="shared" si="18"/>
         <v>0.25900000000000012</v>
       </c>
-      <c r="Q97" s="129">
+      <c r="Q97" s="95">
         <f t="shared" si="19"/>
         <v>25.900000000000013</v>
       </c>
@@ -10755,11 +10846,11 @@
       <c r="B98" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
       <c r="H98" s="8">
         <v>1.3120000000000001</v>
       </c>
@@ -10790,7 +10881,7 @@
         <f t="shared" si="18"/>
         <v>0.12400000000000011</v>
       </c>
-      <c r="Q98" s="129">
+      <c r="Q98" s="95">
         <f t="shared" si="19"/>
         <v>12.400000000000011</v>
       </c>
@@ -10816,26 +10907,26 @@
         <f>SUM(P91:P98)</f>
         <v>1.9340000000000004</v>
       </c>
-      <c r="Q99" s="129">
+      <c r="Q99" s="95">
         <f t="shared" si="19"/>
         <v>193.40000000000003</v>
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F100" s="135">
+      <c r="F100" s="149">
         <f>F99-K99</f>
         <v>-1.9890000000000025</v>
       </c>
-      <c r="G100" s="136"/>
-      <c r="H100" s="136"/>
-      <c r="I100" s="136"/>
-      <c r="J100" s="136"/>
-      <c r="K100" s="136"/>
-      <c r="M100" s="135">
+      <c r="G100" s="150"/>
+      <c r="H100" s="150"/>
+      <c r="I100" s="150"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="150"/>
+      <c r="M100" s="149">
         <f>M99-N99</f>
         <v>-1.9890000000000003</v>
       </c>
-      <c r="N100" s="135"/>
+      <c r="N100" s="149"/>
       <c r="P100" s="8"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
@@ -10844,87 +10935,87 @@
       <c r="P101" s="8"/>
     </row>
     <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="124" t="s">
+      <c r="B103" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="124"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="124"/>
-      <c r="G103" s="124"/>
-      <c r="H103" s="124"/>
+      <c r="C103" s="147"/>
+      <c r="D103" s="147"/>
+      <c r="E103" s="147"/>
+      <c r="F103" s="147"/>
+      <c r="G103" s="147"/>
+      <c r="H103" s="147"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="121" t="s">
+      <c r="B104" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="120" t="s">
+      <c r="C104" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D104" s="120"/>
-      <c r="E104" s="120"/>
-      <c r="F104" s="121" t="s">
+      <c r="D104" s="136"/>
+      <c r="E104" s="136"/>
+      <c r="F104" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="120" t="s">
+      <c r="G104" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="H104" s="120" t="s">
+      <c r="H104" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="I104" s="120"/>
-      <c r="J104" s="120"/>
-      <c r="K104" s="121" t="s">
+      <c r="I104" s="136"/>
+      <c r="J104" s="136"/>
+      <c r="K104" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="L104" s="120" t="s">
+      <c r="L104" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="M104" s="120" t="s">
+      <c r="M104" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="N104" s="120" t="s">
+      <c r="N104" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="O104" s="120" t="s">
+      <c r="O104" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="P104" s="121" t="s">
+      <c r="P104" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q104" s="131" t="s">
+      <c r="Q104" s="142" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="121"/>
-      <c r="C105" s="122" t="s">
+      <c r="B105" s="137"/>
+      <c r="C105" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="122" t="s">
+      <c r="D105" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E105" s="122" t="s">
+      <c r="E105" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="F105" s="120"/>
-      <c r="G105" s="120"/>
-      <c r="H105" s="122" t="s">
+      <c r="F105" s="136"/>
+      <c r="G105" s="136"/>
+      <c r="H105" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="I105" s="122" t="s">
+      <c r="I105" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="J105" s="122" t="s">
+      <c r="J105" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="K105" s="120"/>
-      <c r="L105" s="120"/>
-      <c r="M105" s="120"/>
-      <c r="N105" s="120"/>
-      <c r="O105" s="120"/>
-      <c r="P105" s="120"/>
-      <c r="Q105" s="132"/>
+      <c r="K105" s="136"/>
+      <c r="L105" s="136"/>
+      <c r="M105" s="136"/>
+      <c r="N105" s="136"/>
+      <c r="O105" s="136"/>
+      <c r="P105" s="136"/>
+      <c r="Q105" s="143"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -10947,19 +11038,19 @@
         <f>C106-E106</f>
         <v>0.15199999999999991</v>
       </c>
-      <c r="H106" s="123"/>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="123"/>
-      <c r="L106" s="123"/>
-      <c r="M106" s="123"/>
-      <c r="N106" s="123"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92"/>
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8">
         <f>(G106+L106)</f>
         <v>0.15199999999999991</v>
       </c>
-      <c r="Q106" s="129">
+      <c r="Q106" s="95">
         <f>P106*100</f>
         <v>15.199999999999992</v>
       </c>
@@ -11015,7 +11106,7 @@
         <f t="shared" ref="P107:P114" si="26">(G107+L107)</f>
         <v>0.27800000000000002</v>
       </c>
-      <c r="Q107" s="129">
+      <c r="Q107" s="95">
         <f t="shared" ref="Q107:Q115" si="27">P107*100</f>
         <v>27.800000000000004</v>
       </c>
@@ -11071,7 +11162,7 @@
         <f t="shared" si="26"/>
         <v>0.24499999999999988</v>
       </c>
-      <c r="Q108" s="129">
+      <c r="Q108" s="95">
         <f t="shared" si="27"/>
         <v>24.499999999999989</v>
       </c>
@@ -11127,7 +11218,7 @@
         <f t="shared" si="26"/>
         <v>0.24299999999999988</v>
       </c>
-      <c r="Q109" s="129">
+      <c r="Q109" s="95">
         <f t="shared" si="27"/>
         <v>24.29999999999999</v>
       </c>
@@ -11183,7 +11274,7 @@
         <f t="shared" si="26"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="Q110" s="129">
+      <c r="Q110" s="95">
         <f t="shared" si="27"/>
         <v>23.2</v>
       </c>
@@ -11239,7 +11330,7 @@
         <f t="shared" si="26"/>
         <v>0.24899999999999989</v>
       </c>
-      <c r="Q111" s="129">
+      <c r="Q111" s="95">
         <f t="shared" si="27"/>
         <v>24.899999999999988</v>
       </c>
@@ -11295,7 +11386,7 @@
         <f t="shared" si="26"/>
         <v>0.247</v>
       </c>
-      <c r="Q112" s="129">
+      <c r="Q112" s="95">
         <f t="shared" si="27"/>
         <v>24.7</v>
       </c>
@@ -11351,7 +11442,7 @@
         <f t="shared" si="26"/>
         <v>0.21400000000000019</v>
       </c>
-      <c r="Q113" s="129">
+      <c r="Q113" s="95">
         <f t="shared" si="27"/>
         <v>21.40000000000002</v>
       </c>
@@ -11360,11 +11451,11 @@
       <c r="B114" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="123"/>
-      <c r="D114" s="123"/>
-      <c r="E114" s="123"/>
-      <c r="F114" s="123"/>
-      <c r="G114" s="123"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
       <c r="H114" s="8">
         <v>0.81200000000000006</v>
       </c>
@@ -11395,7 +11486,7 @@
         <f t="shared" si="26"/>
         <v>9.2000000000000082E-2</v>
       </c>
-      <c r="Q114" s="129">
+      <c r="Q114" s="95">
         <f t="shared" si="27"/>
         <v>9.2000000000000082</v>
       </c>
@@ -11421,282 +11512,282 @@
         <f>SUM(P106:P114)</f>
         <v>1.9519999999999997</v>
       </c>
-      <c r="Q115" s="129">
+      <c r="Q115" s="95">
         <f t="shared" si="27"/>
         <v>195.19999999999996</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F116" s="135">
+      <c r="F116" s="149">
         <f>K115-F115</f>
         <v>-1.996333333333336</v>
       </c>
-      <c r="G116" s="136"/>
-      <c r="H116" s="136"/>
-      <c r="I116" s="136"/>
-      <c r="J116" s="136"/>
-      <c r="K116" s="136"/>
-      <c r="M116" s="135">
+      <c r="G116" s="150"/>
+      <c r="H116" s="150"/>
+      <c r="I116" s="150"/>
+      <c r="J116" s="150"/>
+      <c r="K116" s="150"/>
+      <c r="M116" s="149">
         <f>N115-M115</f>
         <v>-1.9963333333333335</v>
       </c>
-      <c r="N116" s="135"/>
+      <c r="N116" s="149"/>
       <c r="P116" s="8"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="139"/>
-      <c r="B118" s="147"/>
+      <c r="A118" s="100"/>
+      <c r="B118" s="108"/>
       <c r="C118" s="148" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="148"/>
       <c r="E118" s="148"/>
-      <c r="F118" s="149">
+      <c r="F118" s="109">
         <f>(M116+M100)/2</f>
         <v>-1.992666666666667</v>
       </c>
-      <c r="G118" s="147"/>
-      <c r="H118" s="147"/>
-      <c r="I118" s="139"/>
-      <c r="J118" s="139"/>
-      <c r="K118" s="139"/>
-      <c r="L118" s="139"/>
-      <c r="M118" s="139"/>
-      <c r="N118" s="139"/>
-      <c r="O118" s="139"/>
-      <c r="P118" s="139"/>
-      <c r="Q118" s="140"/>
-      <c r="R118" s="139"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="108"/>
+      <c r="I118" s="100"/>
+      <c r="J118" s="100"/>
+      <c r="K118" s="100"/>
+      <c r="L118" s="100"/>
+      <c r="M118" s="100"/>
+      <c r="N118" s="100"/>
+      <c r="O118" s="100"/>
+      <c r="P118" s="100"/>
+      <c r="Q118" s="101"/>
+      <c r="R118" s="100"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="139"/>
-      <c r="B119" s="145"/>
+      <c r="A119" s="100"/>
+      <c r="B119" s="106"/>
       <c r="C119" s="148" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="148"/>
       <c r="E119" s="148"/>
-      <c r="F119" s="149">
+      <c r="F119" s="109">
         <f>ABS(M116-M100)</f>
         <v>7.3333333333331918E-3</v>
       </c>
-      <c r="G119" s="146"/>
-      <c r="H119" s="146"/>
-      <c r="I119" s="146"/>
-      <c r="J119" s="146"/>
-      <c r="K119" s="145"/>
-      <c r="L119" s="146"/>
-      <c r="M119" s="146"/>
-      <c r="N119" s="146"/>
-      <c r="O119" s="146"/>
-      <c r="P119" s="145"/>
-      <c r="Q119" s="143"/>
-      <c r="R119" s="139"/>
+      <c r="G119" s="107"/>
+      <c r="H119" s="107"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="107"/>
+      <c r="K119" s="106"/>
+      <c r="L119" s="107"/>
+      <c r="M119" s="107"/>
+      <c r="N119" s="107"/>
+      <c r="O119" s="107"/>
+      <c r="P119" s="106"/>
+      <c r="Q119" s="104"/>
+      <c r="R119" s="100"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="139"/>
-      <c r="B120" s="145"/>
+      <c r="A120" s="100"/>
+      <c r="B120" s="106"/>
       <c r="C120" s="148" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="148"/>
       <c r="E120" s="148"/>
-      <c r="F120" s="150">
+      <c r="F120" s="110">
         <f>(24*SQRT((Q99+Q115)/1000))/1000</f>
         <v>1.4961069480488351E-2</v>
       </c>
-      <c r="G120" s="146"/>
-      <c r="H120" s="141"/>
-      <c r="I120" s="141"/>
-      <c r="J120" s="141"/>
-      <c r="K120" s="146"/>
-      <c r="L120" s="146"/>
-      <c r="M120" s="146"/>
-      <c r="N120" s="146"/>
-      <c r="O120" s="146"/>
-      <c r="P120" s="146"/>
-      <c r="Q120" s="144"/>
-      <c r="R120" s="139"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="102"/>
+      <c r="I120" s="102"/>
+      <c r="J120" s="102"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="107"/>
+      <c r="N120" s="107"/>
+      <c r="O120" s="107"/>
+      <c r="P120" s="107"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="100"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="139"/>
-      <c r="B121" s="139"/>
-      <c r="C121" s="142"/>
-      <c r="D121" s="142"/>
-      <c r="E121" s="142"/>
-      <c r="F121" s="142"/>
-      <c r="G121" s="142"/>
-      <c r="H121" s="142"/>
-      <c r="I121" s="142"/>
-      <c r="J121" s="142"/>
-      <c r="K121" s="142"/>
-      <c r="L121" s="142"/>
-      <c r="M121" s="142"/>
-      <c r="N121" s="142"/>
-      <c r="O121" s="142"/>
-      <c r="P121" s="142"/>
-      <c r="Q121" s="140"/>
-      <c r="R121" s="139"/>
+      <c r="A121" s="100"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="103"/>
+      <c r="J121" s="103"/>
+      <c r="K121" s="103"/>
+      <c r="L121" s="103"/>
+      <c r="M121" s="103"/>
+      <c r="N121" s="103"/>
+      <c r="O121" s="103"/>
+      <c r="P121" s="103"/>
+      <c r="Q121" s="101"/>
+      <c r="R121" s="100"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="139"/>
-      <c r="B122" s="139"/>
-      <c r="C122" s="142"/>
-      <c r="D122" s="142"/>
-      <c r="E122" s="142"/>
-      <c r="F122" s="142"/>
-      <c r="G122" s="142"/>
-      <c r="H122" s="142"/>
-      <c r="I122" s="142"/>
-      <c r="J122" s="142"/>
-      <c r="K122" s="142"/>
-      <c r="L122" s="142"/>
-      <c r="M122" s="142"/>
-      <c r="N122" s="142"/>
-      <c r="O122" s="142"/>
-      <c r="P122" s="142"/>
-      <c r="Q122" s="140"/>
-      <c r="R122" s="139"/>
+      <c r="A122" s="100"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="103"/>
+      <c r="E122" s="103"/>
+      <c r="F122" s="103"/>
+      <c r="G122" s="103"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="103"/>
+      <c r="J122" s="103"/>
+      <c r="K122" s="103"/>
+      <c r="L122" s="103"/>
+      <c r="M122" s="103"/>
+      <c r="N122" s="103"/>
+      <c r="O122" s="103"/>
+      <c r="P122" s="103"/>
+      <c r="Q122" s="101"/>
+      <c r="R122" s="100"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="139"/>
-      <c r="B123" s="139"/>
-      <c r="C123" s="142"/>
-      <c r="D123" s="142"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="142"/>
-      <c r="G123" s="142"/>
-      <c r="H123" s="142"/>
-      <c r="I123" s="142"/>
-      <c r="J123" s="142"/>
-      <c r="K123" s="142"/>
-      <c r="L123" s="142"/>
-      <c r="M123" s="142"/>
-      <c r="N123" s="142"/>
-      <c r="O123" s="142"/>
-      <c r="P123" s="142"/>
-      <c r="Q123" s="140"/>
-      <c r="R123" s="139"/>
+      <c r="A123" s="100"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="103"/>
+      <c r="F123" s="103"/>
+      <c r="G123" s="103"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="103"/>
+      <c r="J123" s="103"/>
+      <c r="K123" s="103"/>
+      <c r="L123" s="103"/>
+      <c r="M123" s="103"/>
+      <c r="N123" s="103"/>
+      <c r="O123" s="103"/>
+      <c r="P123" s="103"/>
+      <c r="Q123" s="101"/>
+      <c r="R123" s="100"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="139"/>
-      <c r="B124" s="139"/>
-      <c r="C124" s="142"/>
-      <c r="D124" s="142"/>
-      <c r="E124" s="142"/>
-      <c r="F124" s="142"/>
-      <c r="G124" s="142"/>
-      <c r="H124" s="142"/>
-      <c r="I124" s="142"/>
-      <c r="J124" s="142"/>
-      <c r="K124" s="142"/>
-      <c r="L124" s="142"/>
-      <c r="M124" s="142"/>
-      <c r="N124" s="142"/>
-      <c r="O124" s="142"/>
-      <c r="P124" s="142"/>
-      <c r="Q124" s="140"/>
-      <c r="R124" s="139"/>
+      <c r="A124" s="100"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="103"/>
+      <c r="D124" s="103"/>
+      <c r="E124" s="103"/>
+      <c r="F124" s="103"/>
+      <c r="G124" s="103"/>
+      <c r="H124" s="103"/>
+      <c r="I124" s="103"/>
+      <c r="J124" s="103"/>
+      <c r="K124" s="103"/>
+      <c r="L124" s="103"/>
+      <c r="M124" s="103"/>
+      <c r="N124" s="103"/>
+      <c r="O124" s="103"/>
+      <c r="P124" s="103"/>
+      <c r="Q124" s="101"/>
+      <c r="R124" s="100"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="139"/>
-      <c r="B125" s="139"/>
-      <c r="C125" s="142"/>
-      <c r="D125" s="142"/>
-      <c r="E125" s="142"/>
-      <c r="F125" s="142"/>
-      <c r="G125" s="142"/>
-      <c r="H125" s="142"/>
-      <c r="I125" s="142"/>
-      <c r="J125" s="142"/>
-      <c r="K125" s="142"/>
-      <c r="L125" s="142"/>
-      <c r="M125" s="142"/>
-      <c r="N125" s="142"/>
-      <c r="O125" s="142"/>
-      <c r="P125" s="142"/>
-      <c r="Q125" s="140"/>
-      <c r="R125" s="139"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="103"/>
+      <c r="F125" s="103"/>
+      <c r="G125" s="103"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="103"/>
+      <c r="J125" s="103"/>
+      <c r="K125" s="103"/>
+      <c r="L125" s="103"/>
+      <c r="M125" s="103"/>
+      <c r="N125" s="103"/>
+      <c r="O125" s="103"/>
+      <c r="P125" s="103"/>
+      <c r="Q125" s="101"/>
+      <c r="R125" s="100"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="139"/>
-      <c r="B126" s="139"/>
-      <c r="C126" s="142"/>
-      <c r="D126" s="142"/>
-      <c r="E126" s="142"/>
-      <c r="F126" s="142"/>
-      <c r="G126" s="142"/>
-      <c r="H126" s="142"/>
-      <c r="I126" s="142"/>
-      <c r="J126" s="142"/>
-      <c r="K126" s="142"/>
-      <c r="L126" s="142"/>
-      <c r="M126" s="142"/>
-      <c r="N126" s="142"/>
-      <c r="O126" s="142"/>
-      <c r="P126" s="142"/>
-      <c r="Q126" s="140"/>
-      <c r="R126" s="139"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="103"/>
+      <c r="D126" s="103"/>
+      <c r="E126" s="103"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="103"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="103"/>
+      <c r="J126" s="103"/>
+      <c r="K126" s="103"/>
+      <c r="L126" s="103"/>
+      <c r="M126" s="103"/>
+      <c r="N126" s="103"/>
+      <c r="O126" s="103"/>
+      <c r="P126" s="103"/>
+      <c r="Q126" s="101"/>
+      <c r="R126" s="100"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="139"/>
-      <c r="B127" s="139"/>
-      <c r="C127" s="142"/>
-      <c r="D127" s="142"/>
-      <c r="E127" s="142"/>
-      <c r="F127" s="142"/>
-      <c r="G127" s="142"/>
-      <c r="H127" s="142"/>
-      <c r="I127" s="142"/>
-      <c r="J127" s="142"/>
-      <c r="K127" s="142"/>
-      <c r="L127" s="142"/>
-      <c r="M127" s="142"/>
-      <c r="N127" s="142"/>
-      <c r="O127" s="142"/>
-      <c r="P127" s="142"/>
-      <c r="Q127" s="140"/>
-      <c r="R127" s="139"/>
+      <c r="A127" s="100"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103"/>
+      <c r="E127" s="103"/>
+      <c r="F127" s="103"/>
+      <c r="G127" s="103"/>
+      <c r="H127" s="103"/>
+      <c r="I127" s="103"/>
+      <c r="J127" s="103"/>
+      <c r="K127" s="103"/>
+      <c r="L127" s="103"/>
+      <c r="M127" s="103"/>
+      <c r="N127" s="103"/>
+      <c r="O127" s="103"/>
+      <c r="P127" s="103"/>
+      <c r="Q127" s="101"/>
+      <c r="R127" s="100"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="139"/>
-      <c r="B128" s="139"/>
-      <c r="C128" s="142"/>
-      <c r="D128" s="142"/>
-      <c r="E128" s="142"/>
-      <c r="F128" s="142"/>
-      <c r="G128" s="142"/>
-      <c r="H128" s="142"/>
-      <c r="I128" s="142"/>
-      <c r="J128" s="142"/>
-      <c r="K128" s="142"/>
-      <c r="L128" s="142"/>
-      <c r="M128" s="142"/>
-      <c r="N128" s="142"/>
-      <c r="O128" s="142"/>
-      <c r="P128" s="142"/>
-      <c r="Q128" s="140"/>
-      <c r="R128" s="139"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="100"/>
+      <c r="C128" s="103"/>
+      <c r="D128" s="103"/>
+      <c r="E128" s="103"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="103"/>
+      <c r="H128" s="103"/>
+      <c r="I128" s="103"/>
+      <c r="J128" s="103"/>
+      <c r="K128" s="103"/>
+      <c r="L128" s="103"/>
+      <c r="M128" s="103"/>
+      <c r="N128" s="103"/>
+      <c r="O128" s="103"/>
+      <c r="P128" s="103"/>
+      <c r="Q128" s="101"/>
+      <c r="R128" s="100"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="139"/>
-      <c r="B129" s="139"/>
-      <c r="C129" s="139"/>
-      <c r="D129" s="139"/>
-      <c r="E129" s="139"/>
-      <c r="F129" s="139"/>
-      <c r="G129" s="139"/>
-      <c r="H129" s="139"/>
-      <c r="I129" s="139"/>
-      <c r="J129" s="139"/>
-      <c r="K129" s="139"/>
-      <c r="L129" s="139"/>
-      <c r="M129" s="142"/>
-      <c r="N129" s="142"/>
-      <c r="O129" s="139"/>
-      <c r="P129" s="142"/>
-      <c r="Q129" s="140"/>
-      <c r="R129" s="139"/>
+      <c r="A129" s="100"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="100"/>
+      <c r="E129" s="100"/>
+      <c r="F129" s="100"/>
+      <c r="G129" s="100"/>
+      <c r="H129" s="100"/>
+      <c r="I129" s="100"/>
+      <c r="J129" s="100"/>
+      <c r="K129" s="100"/>
+      <c r="L129" s="100"/>
+      <c r="M129" s="103"/>
+      <c r="N129" s="103"/>
+      <c r="O129" s="100"/>
+      <c r="P129" s="103"/>
+      <c r="Q129" s="101"/>
+      <c r="R129" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -11705,6 +11796,11 @@
     <mergeCell ref="C119:E119"/>
     <mergeCell ref="C120:E120"/>
     <mergeCell ref="M89:M90"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="F116:K116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="N104:N105"/>
     <mergeCell ref="N89:N90"/>
     <mergeCell ref="O89:O90"/>
     <mergeCell ref="P89:P90"/>
@@ -11716,16 +11812,16 @@
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="L89:L90"/>
-    <mergeCell ref="F116:K116"/>
-    <mergeCell ref="M116:N116"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="F51:K51"/>
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="F80:K80"/>
     <mergeCell ref="C84:E84"/>
     <mergeCell ref="C82:E82"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
     <mergeCell ref="O104:O105"/>
     <mergeCell ref="P104:P105"/>
     <mergeCell ref="Q104:Q105"/>
@@ -11742,11 +11838,6 @@
     <mergeCell ref="K104:K105"/>
     <mergeCell ref="L104:L105"/>
     <mergeCell ref="M104:M105"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
     <mergeCell ref="O55:O56"/>
     <mergeCell ref="P55:P56"/>
     <mergeCell ref="B19:C19"/>
@@ -11791,4 +11882,679 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E481BD-5099-40E8-B9F8-0B56E429741B}">
+  <dimension ref="B4:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+    </row>
+    <row r="7" spans="2:12" s="152" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="163" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="164" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="159">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="F8" s="160"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="153"/>
+      <c r="C9" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155">
+        <v>0.92</v>
+      </c>
+      <c r="F9" s="155">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="G9" s="155" t="str">
+        <f>IF(SIGN(E8-F9)=1,E8-F9,"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="155">
+        <f>IF(SIGN(E8-F9)=-1,ABS(E8-F9),"")</f>
+        <v>0.42800000000000016</v>
+      </c>
+      <c r="I9" s="155"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="153"/>
+      <c r="C10" s="153" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F10" s="155">
+        <v>1.774</v>
+      </c>
+      <c r="G10" s="155" t="str">
+        <f t="shared" ref="G10:G34" si="0">IF(SIGN(E9-F10)=1,E9-F10,"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="155">
+        <f t="shared" ref="H10:H34" si="1">IF(SIGN(E9-F10)=-1,ABS(E9-F10),"")</f>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I10" s="155"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="153"/>
+      <c r="C11" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155">
+        <v>1.19</v>
+      </c>
+      <c r="F11" s="155">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="G11" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="155">
+        <f t="shared" si="1"/>
+        <v>1.032</v>
+      </c>
+      <c r="I11" s="155"/>
+    </row>
+    <row r="12" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="156"/>
+      <c r="C12" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="162">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="162">
+        <v>1.44</v>
+      </c>
+      <c r="G12" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="155">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="162"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="153"/>
+      <c r="C13" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="154"/>
+      <c r="E13" s="155">
+        <v>0.88</v>
+      </c>
+      <c r="F13" s="155">
+        <v>1.87</v>
+      </c>
+      <c r="G13" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="155">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="153"/>
+      <c r="C14" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="155">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="F14" s="155">
+        <v>1.73</v>
+      </c>
+      <c r="G14" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="155">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="I14" s="155"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="153"/>
+      <c r="C15" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="F15" s="155">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G15" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="155">
+        <f t="shared" si="1"/>
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="I15" s="155"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="153"/>
+      <c r="C16" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="F16" s="155">
+        <v>1.758</v>
+      </c>
+      <c r="G16" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="155">
+        <f t="shared" si="1"/>
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I16" s="155"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F17" s="155">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="G17" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="155">
+        <f t="shared" si="1"/>
+        <v>0.99699999999999989</v>
+      </c>
+      <c r="I17" s="155"/>
+    </row>
+    <row r="18" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="156"/>
+      <c r="C18" s="156" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="162">
+        <v>1.23</v>
+      </c>
+      <c r="F18" s="162">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="G18" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="155">
+        <f t="shared" si="1"/>
+        <v>1.028</v>
+      </c>
+      <c r="I18" s="162"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="153"/>
+      <c r="C19" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F19" s="155">
+        <v>1.708</v>
+      </c>
+      <c r="G19" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="155">
+        <f t="shared" si="1"/>
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I19" s="155"/>
+    </row>
+    <row r="20" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="156"/>
+      <c r="C20" s="156" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="162">
+        <v>1.373</v>
+      </c>
+      <c r="F20" s="162">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="G20" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="155">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="I20" s="162"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="153"/>
+      <c r="C21" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F21" s="155">
+        <v>1.385</v>
+      </c>
+      <c r="G21" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="155">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="I21" s="155"/>
+    </row>
+    <row r="22" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="156"/>
+      <c r="C22" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="162">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="F22" s="162">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="G22" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="155">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+      <c r="I22" s="162"/>
+    </row>
+    <row r="23" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="156"/>
+      <c r="C23" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="161" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="162">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F23" s="162">
+        <v>1.49</v>
+      </c>
+      <c r="G23" s="155">
+        <f t="shared" si="0"/>
+        <v>0.17399999999999993</v>
+      </c>
+      <c r="H23" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I23" s="162"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F24" s="155">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="G24" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="155">
+        <f t="shared" si="1"/>
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="I24" s="155"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="153"/>
+      <c r="C25" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155">
+        <v>0.621</v>
+      </c>
+      <c r="F25" s="155">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="G25" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="155">
+        <f t="shared" si="1"/>
+        <v>1.77</v>
+      </c>
+      <c r="I25" s="155"/>
+    </row>
+    <row r="26" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="156"/>
+      <c r="C26" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="162">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="F26" s="162">
+        <v>0.629</v>
+      </c>
+      <c r="G26" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="155">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="I26" s="162"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="153"/>
+      <c r="C27" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="F27" s="155">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="G27" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="155">
+        <f t="shared" si="1"/>
+        <v>1.1540000000000004</v>
+      </c>
+      <c r="I27" s="155"/>
+    </row>
+    <row r="28" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="156"/>
+      <c r="C28" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="G28" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="155">
+        <f t="shared" si="1"/>
+        <v>0.41900000000000004</v>
+      </c>
+      <c r="I28" s="162"/>
+    </row>
+    <row r="29" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="156"/>
+      <c r="C29" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="162">
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="F29" s="162"/>
+      <c r="G29" s="155" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I29" s="162"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="153"/>
+      <c r="C30" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F30" s="155">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G30" s="155">
+        <f t="shared" si="0"/>
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="H30" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="155"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="153"/>
+      <c r="C31" s="153" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="F31" s="155">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G31" s="155">
+        <f t="shared" si="0"/>
+        <v>1.7439999999999998</v>
+      </c>
+      <c r="H31" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" s="155"/>
+    </row>
+    <row r="32" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="156"/>
+      <c r="C32" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="161" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="162">
+        <v>1.716</v>
+      </c>
+      <c r="F32" s="162">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G32" s="155">
+        <f t="shared" si="0"/>
+        <v>1.6330000000000002</v>
+      </c>
+      <c r="H32" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" s="162"/>
+    </row>
+    <row r="33" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="156"/>
+      <c r="C33" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="161" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="162">
+        <v>2.6040000000000001</v>
+      </c>
+      <c r="F33" s="162">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="G33" s="155">
+        <f t="shared" si="0"/>
+        <v>0.92199999999999993</v>
+      </c>
+      <c r="H33" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" s="162"/>
+    </row>
+    <row r="34" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="156"/>
+      <c r="C34" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G34" s="155">
+        <f t="shared" si="0"/>
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="H34" s="155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I34" s="162"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>